--- a/Input/hydons_model.xlsx
+++ b/Input/hydons_model.xlsx
@@ -152,10 +152,10 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="237" zoomScaleNormal="237" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.78"/>
